--- a/django_vote/candidate_list/候補者リスト_mochida.xlsx
+++ b/django_vote/candidate_list/候補者リスト_mochida.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mochidatakahiro/dev/django/vote/django_vote/candidate_list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hajimesato/Desktop/vote/django_vote/candidate_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0E97D9-C040-5041-8904-5933DD252CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB64622D-7EAA-DA45-BAFF-B054AE663FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="8" activeTab="14" xr2:uid="{DCFEF943-AAAC-304B-8C9A-71BC9B0EEF44}"/>
+    <workbookView xWindow="-19200" yWindow="3820" windowWidth="19200" windowHeight="21100" firstSheet="2" activeTab="10" xr2:uid="{DCFEF943-AAAC-304B-8C9A-71BC9B0EEF44}"/>
   </bookViews>
   <sheets>
     <sheet name="北海道" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -79,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1156">
   <si>
     <t>議員名</t>
     <rPh sb="0" eb="3">
@@ -2602,13 +2600,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>N党</t>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve">トウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>伊東良孝</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4899,6 +4890,25 @@
   </si>
   <si>
     <t>井上信治</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠藤宣彦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉</t>
+    <rPh sb="0" eb="1">
+      <t>サイタマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小笠原洋輝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOBUHIKO_ENDO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4906,7 +4916,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4960,6 +4970,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4983,7 +5001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5003,6 +5021,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5324,8 +5345,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5358,7 +5379,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5375,7 +5396,7 @@
         <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5392,7 +5413,7 @@
         <v>563</v>
       </c>
       <c r="C4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5409,7 +5430,7 @@
         <v>565</v>
       </c>
       <c r="C5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5426,7 +5447,7 @@
         <v>568</v>
       </c>
       <c r="C6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5443,7 +5464,7 @@
         <v>572</v>
       </c>
       <c r="C7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -5460,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -5477,7 +5498,7 @@
         <v>559</v>
       </c>
       <c r="C9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -5494,7 +5515,7 @@
         <v>563</v>
       </c>
       <c r="C10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -5511,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -5528,7 +5549,7 @@
         <v>559</v>
       </c>
       <c r="C12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -5545,7 +5566,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -5562,7 +5583,7 @@
         <v>559</v>
       </c>
       <c r="C14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -5579,7 +5600,7 @@
         <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -5596,7 +5617,7 @@
         <v>591</v>
       </c>
       <c r="C16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -5613,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -5630,7 +5651,7 @@
         <v>559</v>
       </c>
       <c r="C18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -5644,10 +5665,10 @@
         <v>595</v>
       </c>
       <c r="B19" t="s">
-        <v>596</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -5658,13 +5679,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -5675,30 +5696,30 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B21" t="s">
         <v>559</v>
       </c>
       <c r="C21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>599</v>
+      </c>
+      <c r="B22" t="s">
         <v>600</v>
       </c>
-      <c r="B22" t="s">
-        <v>601</v>
-      </c>
       <c r="C22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -5709,189 +5730,189 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B24" t="s">
         <v>559</v>
       </c>
       <c r="C24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D25">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B26" t="s">
         <v>559</v>
       </c>
       <c r="C26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B27" t="s">
         <v>559</v>
       </c>
       <c r="C27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>611</v>
+      </c>
+      <c r="B28" t="s">
         <v>612</v>
       </c>
-      <c r="B28" t="s">
-        <v>613</v>
-      </c>
       <c r="C28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D29">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B30" t="s">
         <v>559</v>
       </c>
       <c r="C30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D30">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D31">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B32" t="s">
         <v>559</v>
       </c>
       <c r="C32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D32">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B33" t="s">
         <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D33">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -5907,8 +5928,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+    <sheetView topLeftCell="A2" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5921,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5938,7 +5959,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5949,115 +5970,115 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B3" t="s">
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B4" t="s">
         <v>563</v>
       </c>
       <c r="C4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B5" t="s">
         <v>591</v>
       </c>
       <c r="C5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B6" t="s">
         <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B7" t="s">
         <v>559</v>
       </c>
       <c r="C7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -6068,81 +6089,81 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B10" t="s">
         <v>568</v>
       </c>
       <c r="C10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B13" t="s">
         <v>559</v>
       </c>
       <c r="C13" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -6153,19 +6174,19 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -6179,10 +6200,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C42"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6212,7 +6233,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6223,30 +6244,30 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B3" t="s">
         <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B4" t="s">
         <v>563</v>
       </c>
       <c r="C4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6257,47 +6278,47 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B5" t="s">
         <v>591</v>
       </c>
       <c r="C5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B6" t="s">
         <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B7" t="s">
         <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -6308,540 +6329,540 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B8" t="s">
         <v>572</v>
       </c>
       <c r="C8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B10" t="s">
         <v>568</v>
       </c>
       <c r="C10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>725</v>
+      </c>
+      <c r="B12" t="s">
         <v>726</v>
       </c>
-      <c r="B12" t="s">
-        <v>727</v>
-      </c>
       <c r="C12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>734</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
+        <v>1152</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>786</v>
+        <v>1153</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>733</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>735</v>
-      </c>
-      <c r="B16" t="s">
-        <v>559</v>
+        <v>1154</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>786</v>
+        <v>1153</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>736</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B18" t="s">
         <v>559</v>
       </c>
       <c r="C18" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B20" t="s">
         <v>559</v>
       </c>
       <c r="C20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>743</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B21" t="s">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B22" t="s">
-        <v>653</v>
+        <v>559</v>
       </c>
       <c r="C22" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B23" t="s">
-        <v>650</v>
+        <v>563</v>
       </c>
       <c r="C23" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>652</v>
       </c>
       <c r="C24" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B25" t="s">
-        <v>559</v>
+        <v>649</v>
       </c>
       <c r="C25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>559</v>
       </c>
       <c r="C27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B28" t="s">
-        <v>559</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B30" t="s">
         <v>559</v>
       </c>
       <c r="C30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D31">
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>764</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B32" t="s">
-        <v>653</v>
+        <v>559</v>
       </c>
       <c r="C32" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B33" t="s">
-        <v>559</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>652</v>
       </c>
       <c r="C34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B35" t="s">
         <v>559</v>
       </c>
       <c r="C35" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D36">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>559</v>
       </c>
       <c r="C37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>771</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B38" t="s">
         <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B39" t="s">
-        <v>778</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D39">
         <v>14</v>
@@ -6852,53 +6873,87 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B41" t="s">
-        <v>559</v>
+        <v>777</v>
       </c>
       <c r="C41" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>783</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B42" t="s">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D42">
         <v>15</v>
       </c>
       <c r="E42" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>781</v>
+      </c>
+      <c r="B43" t="s">
+        <v>559</v>
+      </c>
+      <c r="C43" t="s">
         <v>785</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>783</v>
+      </c>
+      <c r="B44" t="s">
+        <v>563</v>
+      </c>
+      <c r="C44" t="s">
+        <v>785</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -6914,8 +6969,8 @@
   </sheetPr>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6945,7 +7000,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6956,234 +7011,234 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B3" t="s">
         <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B4" t="s">
         <v>565</v>
       </c>
       <c r="C4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B5" t="s">
         <v>568</v>
       </c>
       <c r="C5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B6" t="s">
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B8" t="s">
         <v>559</v>
       </c>
       <c r="C8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>798</v>
+      </c>
+      <c r="B9" t="s">
         <v>799</v>
       </c>
-      <c r="B9" t="s">
-        <v>800</v>
-      </c>
       <c r="C9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B10" t="s">
         <v>559</v>
       </c>
       <c r="C10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B11" t="s">
         <v>559</v>
       </c>
       <c r="C11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B13" t="s">
         <v>563</v>
       </c>
       <c r="C13" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B15" t="s">
         <v>572</v>
       </c>
       <c r="C15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -7194,149 +7249,149 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B18" t="s">
         <v>591</v>
       </c>
       <c r="C18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B19" t="s">
         <v>563</v>
       </c>
       <c r="C19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D19">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B21" t="s">
         <v>559</v>
       </c>
       <c r="C21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B22" t="s">
         <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D22">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B23" t="s">
         <v>559</v>
       </c>
       <c r="C23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B25" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -7347,98 +7402,98 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B26" t="s">
         <v>559</v>
       </c>
       <c r="C26" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B28" t="s">
         <v>591</v>
       </c>
       <c r="C28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>837</v>
+      </c>
+      <c r="B29" t="s">
         <v>838</v>
       </c>
-      <c r="B29" t="s">
-        <v>839</v>
-      </c>
       <c r="C29" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B30" t="s">
         <v>559</v>
       </c>
       <c r="C30" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -7449,30 +7504,30 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B32" t="s">
         <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D32">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D33">
         <v>11</v>
@@ -7483,30 +7538,30 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D34">
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B35" t="s">
         <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D35">
         <v>12</v>
@@ -7517,87 +7572,87 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B37" t="s">
         <v>559</v>
       </c>
       <c r="C37" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B38" t="s">
         <v>559</v>
       </c>
       <c r="C38" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D39">
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B40" t="s">
         <v>563</v>
       </c>
       <c r="C40" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D40">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -7649,7 +7704,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B3" t="s">
         <v>559</v>
@@ -7658,12 +7713,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
@@ -7677,7 +7732,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B5" t="s">
         <v>568</v>
@@ -7686,12 +7741,12 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B6" t="s">
         <v>101</v>
@@ -7700,12 +7755,12 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B7" t="s">
         <v>565</v>
@@ -7714,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -7730,8 +7785,8 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7752,21 +7807,21 @@
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>870</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>871</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>591</v>
@@ -7775,12 +7830,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>559</v>
@@ -7789,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7808,7 +7863,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B6" t="s">
         <v>568</v>
@@ -7817,12 +7872,12 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B7" t="s">
         <v>565</v>
@@ -7831,12 +7886,12 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B8" t="s">
         <v>559</v>
@@ -7845,26 +7900,26 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B10" t="s">
         <v>101</v>
@@ -7873,12 +7928,12 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -7887,12 +7942,12 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B12" t="s">
         <v>591</v>
@@ -7901,26 +7956,26 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>890</v>
+      </c>
+      <c r="B13" t="s">
         <v>891</v>
-      </c>
-      <c r="B13" t="s">
-        <v>892</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B14" t="s">
         <v>591</v>
@@ -7929,12 +7984,12 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B15" t="s">
         <v>572</v>
@@ -7943,12 +7998,12 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B16" t="s">
         <v>559</v>
@@ -7957,12 +8012,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -7971,12 +8026,12 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B18" t="s">
         <v>563</v>
@@ -7985,26 +8040,26 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B19" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -8013,12 +8068,12 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B21" t="s">
         <v>559</v>
@@ -8027,12 +8082,12 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -8041,12 +8096,12 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -8055,12 +8110,12 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B24" t="s">
         <v>559</v>
@@ -8069,26 +8124,26 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -8097,12 +8152,12 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B27" t="s">
         <v>559</v>
@@ -8111,12 +8166,12 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B28" t="s">
         <v>563</v>
@@ -8125,26 +8180,26 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -8153,12 +8208,12 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B31" t="s">
         <v>101</v>
@@ -8167,12 +8222,12 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B32" t="s">
         <v>563</v>
@@ -8181,12 +8236,12 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B33" t="s">
         <v>101</v>
@@ -8195,12 +8250,12 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -8214,7 +8269,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -8223,12 +8278,12 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B36" t="s">
         <v>559</v>
@@ -8237,12 +8292,12 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B37" t="s">
         <v>563</v>
@@ -8251,12 +8306,12 @@
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B38" t="s">
         <v>559</v>
@@ -8265,12 +8320,12 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -8279,12 +8334,12 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B40" t="s">
         <v>559</v>
@@ -8298,7 +8353,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -8312,21 +8367,21 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>946</v>
+      </c>
+      <c r="B42" t="s">
         <v>947</v>
-      </c>
-      <c r="B42" t="s">
-        <v>948</v>
       </c>
       <c r="C42">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -8335,12 +8390,12 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B44" t="s">
         <v>94</v>
@@ -8354,7 +8409,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -8363,12 +8418,12 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B46" t="s">
         <v>559</v>
@@ -8377,12 +8432,12 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -8391,26 +8446,26 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>958</v>
+      </c>
+      <c r="B48" t="s">
         <v>959</v>
-      </c>
-      <c r="B48" t="s">
-        <v>960</v>
       </c>
       <c r="C48">
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B49" t="s">
         <v>101</v>
@@ -8419,12 +8474,12 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B50" t="s">
         <v>559</v>
@@ -8433,12 +8488,12 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B51" t="s">
         <v>563</v>
@@ -8452,7 +8507,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -8461,7 +8516,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -8477,8 +8532,8 @@
   </sheetPr>
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A78" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8513,7 +8568,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B3" t="s">
         <v>559</v>
@@ -8522,12 +8577,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B4" t="s">
         <v>563</v>
@@ -8536,12 +8591,12 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B5" t="s">
         <v>591</v>
@@ -8555,7 +8610,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B6" t="s">
         <v>572</v>
@@ -8564,12 +8619,12 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B7" t="s">
         <v>568</v>
@@ -8578,12 +8633,12 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B8" t="s">
         <v>565</v>
@@ -8592,12 +8647,12 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B9" t="s">
         <v>103</v>
@@ -8606,26 +8661,26 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B11" t="s">
         <v>101</v>
@@ -8634,12 +8689,12 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B12" t="s">
         <v>559</v>
@@ -8648,12 +8703,12 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -8662,12 +8717,12 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B14" t="s">
         <v>563</v>
@@ -8676,12 +8731,12 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -8690,26 +8745,26 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B17" t="s">
         <v>559</v>
@@ -8718,12 +8773,12 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -8732,12 +8787,12 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B19" t="s">
         <v>563</v>
@@ -8746,12 +8801,12 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -8760,12 +8815,12 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B21" t="s">
         <v>563</v>
@@ -8774,12 +8829,12 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B22" t="s">
         <v>559</v>
@@ -8788,12 +8843,12 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B23" t="s">
         <v>563</v>
@@ -8802,12 +8857,12 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -8816,12 +8871,12 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B25" t="s">
         <v>559</v>
@@ -8830,12 +8885,12 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B26" t="s">
         <v>94</v>
@@ -8844,12 +8899,12 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B27" t="s">
         <v>591</v>
@@ -8858,12 +8913,12 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -8872,12 +8927,12 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B29" t="s">
         <v>559</v>
@@ -8886,12 +8941,12 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B30" t="s">
         <v>563</v>
@@ -8900,12 +8955,12 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B31" t="s">
         <v>559</v>
@@ -8914,12 +8969,12 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -8928,26 +8983,26 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B33" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C33">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B34" t="s">
         <v>563</v>
@@ -8956,26 +9011,26 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -8984,12 +9039,12 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B37" t="s">
         <v>591</v>
@@ -8998,12 +9053,12 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B38" t="s">
         <v>563</v>
@@ -9012,26 +9067,26 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B39" t="s">
         <v>1040</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1041</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -9040,12 +9095,12 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B41" t="s">
         <v>591</v>
@@ -9059,7 +9114,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B42" t="s">
         <v>101</v>
@@ -9068,12 +9123,12 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B43" t="s">
         <v>559</v>
@@ -9082,26 +9137,26 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B44" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C44">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B45" t="s">
         <v>563</v>
@@ -9110,12 +9165,12 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B46" t="s">
         <v>101</v>
@@ -9124,12 +9179,12 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -9138,12 +9193,12 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B48" t="s">
         <v>101</v>
@@ -9152,12 +9207,12 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B49" t="s">
         <v>591</v>
@@ -9166,12 +9221,12 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B50" t="s">
         <v>559</v>
@@ -9180,12 +9235,12 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B51" t="s">
         <v>591</v>
@@ -9194,12 +9249,12 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B52" t="s">
         <v>591</v>
@@ -9213,7 +9268,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -9222,12 +9277,12 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B54" t="s">
         <v>591</v>
@@ -9236,12 +9291,12 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B55" t="s">
         <v>563</v>
@@ -9250,12 +9305,12 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B56" t="s">
         <v>559</v>
@@ -9264,12 +9319,12 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B57" t="s">
         <v>591</v>
@@ -9283,21 +9338,21 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B58" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C58">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B59" t="s">
         <v>559</v>
@@ -9306,12 +9361,12 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B60" t="s">
         <v>591</v>
@@ -9320,12 +9375,12 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B61" t="s">
         <v>591</v>
@@ -9334,12 +9389,12 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B62" t="s">
         <v>125</v>
@@ -9348,12 +9403,12 @@
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B63" t="s">
         <v>563</v>
@@ -9362,12 +9417,12 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B64" t="s">
         <v>591</v>
@@ -9381,7 +9436,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B65" t="s">
         <v>559</v>
@@ -9390,12 +9445,12 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B66" t="s">
         <v>563</v>
@@ -9404,12 +9459,12 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B67" t="s">
         <v>101</v>
@@ -9418,12 +9473,12 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -9432,12 +9487,12 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B69" t="s">
         <v>94</v>
@@ -9446,12 +9501,12 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B70" t="s">
         <v>563</v>
@@ -9460,12 +9515,12 @@
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B71" t="s">
         <v>101</v>
@@ -9474,12 +9529,12 @@
         <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -9488,26 +9543,26 @@
         <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B73" t="s">
         <v>1105</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1106</v>
       </c>
       <c r="C73">
         <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -9516,12 +9571,12 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B75" t="s">
         <v>591</v>
@@ -9530,12 +9585,12 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B76" t="s">
         <v>559</v>
@@ -9544,12 +9599,12 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B77" t="s">
         <v>559</v>
@@ -9558,12 +9613,12 @@
         <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -9572,12 +9627,12 @@
         <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B79" t="s">
         <v>563</v>
@@ -9586,12 +9641,12 @@
         <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B80" t="s">
         <v>563</v>
@@ -9600,12 +9655,12 @@
         <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B81" t="s">
         <v>101</v>
@@ -9614,12 +9669,12 @@
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -9628,12 +9683,12 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B83" t="s">
         <v>563</v>
@@ -9642,12 +9697,12 @@
         <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B84" t="s">
         <v>559</v>
@@ -9656,12 +9711,12 @@
         <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -9670,12 +9725,12 @@
         <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -9684,12 +9739,12 @@
         <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B87" t="s">
         <v>94</v>
@@ -9698,12 +9753,12 @@
         <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B88" t="s">
         <v>103</v>
@@ -9712,12 +9767,12 @@
         <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B89" t="s">
         <v>559</v>
@@ -9726,12 +9781,12 @@
         <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -9740,12 +9795,12 @@
         <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B91" t="s">
         <v>559</v>
@@ -9754,26 +9809,26 @@
         <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B92" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C92">
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B93" t="s">
         <v>101</v>
@@ -9782,26 +9837,26 @@
         <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B94" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C94">
         <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -9815,7 +9870,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B96" t="s">
         <v>559</v>
@@ -9824,12 +9879,12 @@
         <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -13356,7 +13411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24">
+    <row r="2" spans="1:4" ht="22">
       <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
@@ -16238,8 +16293,8 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16269,7 +16324,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -16280,30 +16335,30 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B3" t="s">
         <v>591</v>
       </c>
       <c r="C3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -16314,98 +16369,98 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B5" t="s">
         <v>559</v>
       </c>
       <c r="C5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B7" t="s">
         <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B8" t="s">
         <v>563</v>
       </c>
       <c r="C8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B10" t="s">
         <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -16416,47 +16471,47 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B11" t="s">
         <v>572</v>
       </c>
       <c r="C11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -16467,121 +16522,121 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>645</v>
+      </c>
+      <c r="B14" t="s">
         <v>646</v>
       </c>
-      <c r="B14" t="s">
-        <v>647</v>
-      </c>
       <c r="C14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>648</v>
+      </c>
+      <c r="B15" t="s">
         <v>649</v>
       </c>
-      <c r="B15" t="s">
-        <v>650</v>
-      </c>
       <c r="C15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>651</v>
+      </c>
+      <c r="B16" t="s">
         <v>652</v>
       </c>
-      <c r="B16" t="s">
-        <v>653</v>
-      </c>
       <c r="C16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B17" t="s">
         <v>559</v>
       </c>
       <c r="C17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C18" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B19" t="s">
         <v>559</v>
       </c>
       <c r="C19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D19">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B20" t="s">
         <v>563</v>
       </c>
       <c r="C20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -16597,8 +16652,8 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16611,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -16620,7 +16675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24">
+    <row r="2" spans="1:5" ht="22">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -16628,7 +16683,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -16639,30 +16694,30 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B3" t="s">
         <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B4" t="s">
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -16673,30 +16728,30 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B5" t="s">
         <v>563</v>
       </c>
       <c r="C5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B6" t="s">
         <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -16707,13 +16762,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B7" t="s">
         <v>568</v>
       </c>
       <c r="C7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -16724,13 +16779,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -16741,87 +16796,87 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B9" t="s">
         <v>559</v>
       </c>
       <c r="C9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B11" t="s">
         <v>559</v>
       </c>
       <c r="C11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>677</v>
+      </c>
+      <c r="B12" t="s">
         <v>678</v>
       </c>
-      <c r="B12" t="s">
-        <v>679</v>
-      </c>
       <c r="C12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
